--- a/data/4/20230615-a1r-nc-session4-l_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-l_transcript.xlsx
@@ -1,363 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F292D01-EC4B-8D4C-8B49-BCDE922AE865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:06"</t>
-  </si>
-  <si>
-    <t>"2:27"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Lisa from Hawaii.</t>
-  </si>
-  <si>
-    <t>"2:37"</t>
-  </si>
-  <si>
-    <t>I'm Danny from Idaho.</t>
-  </si>
-  <si>
-    <t>"2:48"</t>
-  </si>
-  <si>
-    <t>Rebecca from Florida.</t>
-  </si>
-  <si>
-    <t>"13:02"</t>
-  </si>
-  <si>
-    <t>I think there should be limits on contributions full disclosure on who is contributing. I just think there should be something that the super Pacs are limited just because you have a lot of money doesn't mean you could spend all that money to make an unfair Advantage. So I think there should be limits. I'm not real sure. What that should be but limits on individuals limits on the super Pacs full disclosure on Whose they are. I also</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Favor, full disclosure and closing the loopholes for foreign-controlled entities from making contributions.</t>
-  </si>
-  <si>
-    <t>"13:47"</t>
-  </si>
-  <si>
-    <t>I agree with Oz, 100%.</t>
-  </si>
-  <si>
-    <t>"13:51"</t>
-  </si>
-  <si>
-    <t>"13:53"</t>
-  </si>
-  <si>
-    <t>"14:08"</t>
-  </si>
-  <si>
-    <t>Andrea, we couldn't hear you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And what I was going to say was they were talking about the, you know,</t>
-  </si>
-  <si>
-    <t>"14:29"</t>
-  </si>
-  <si>
-    <t>You guess. So they were talking about inflation and the cost of running a campaign is more now so I think that they should adjust the limits according to inflation, you know just like we might get a cost of living increase, they can have a increase in what donations could be but that it would it would Trend with inflation and not just be some random.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More amount.</t>
-  </si>
-  <si>
-    <t>"15:04"</t>
-  </si>
-  <si>
-    <t>I agree. I do think that there should be some excuse me said be some recognition about the cost of living increases and that should parallel the donation caps.</t>
-  </si>
-  <si>
-    <t>"15:18"</t>
-  </si>
-  <si>
-    <t>"15:25"</t>
-  </si>
-  <si>
-    <t>I am, I agree with with raising limits for folks that can't afford it. I can't, you know, afford all that. But that would, as long as we do that, in a way that also is coupled with the closing loopholes for foreign-controlled entities, making contributions as well as like, as well as the Constitutional Amendment regarding the IE pieces. Those are getting out of control and they are just a lot of them are either race-baiting or very despicable and misleading.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You and outright lies. So, absolutely. And I think that honestly, I hope we get to the public financing piece. If we talk about that here because I feel like people can't run for office because they can't afford it at all.</t>
-  </si>
-  <si>
-    <t>"16:06"</t>
-  </si>
-  <si>
-    <t>Can you guys hear me?</t>
-  </si>
-  <si>
-    <t>"16:14"</t>
-  </si>
-  <si>
-    <t>Yes, we could.</t>
-  </si>
-  <si>
-    <t>"16:16"</t>
-  </si>
-  <si>
-    <t>Okay, great. I'm sorry. What I was going to say before was that, you know, people who have like unlimited income to finance or donate, it could almost be like their, the opponent is being bought. And how fair is that for somebody who doesn't have the money, and there's a good opponent out there who needs it.</t>
-  </si>
-  <si>
-    <t>"19:01"</t>
-  </si>
-  <si>
-    <t>As I said earlier, totally agree with public financing. I think that it would allow opportunities for those that may not even dream about running for office because of such, because of the huge debt that they could get into win or loss having to pay down that debt is, is something that is terrifying. You some some people that live paycheck to paycheck or could barely live in a higher medium cost of living area,</t>
-  </si>
-  <si>
-    <t>"19:43"</t>
-  </si>
-  <si>
-    <t>I think there should be for full disclosure on everything whoever contributes even if it's five dollars or make a minimum 100, whatever it is it should be for the full disclosure. As far as for the packs, I think the pack should be limited and how much they can contribute and each individual contributor to the pack should be limited. So that one person who has 5 million dollars, just doesn't donate the whole thing. And in essence is buying the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And who they're trying to.</t>
-  </si>
-  <si>
-    <t>"20:21"</t>
-  </si>
-  <si>
-    <t>I do think giving individuals quote-unquote democracy, vouchers would get people more invested in candidates and more invested in the voting process. And I'm a little unsure if that's the best use of maybe taxpayer money. I'm like I'm not sure I like where this money is coming from. There's already a lot of things that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> we need money for so not sure.</t>
-  </si>
-  <si>
-    <t>"22:10"</t>
-  </si>
-  <si>
-    <t>I do think this would be a good idea to have independent nonpartisan e partisan, redistricting that it's left up to the elected officials in the state just feels like they're always going to choose boundaries in their favor.</t>
-  </si>
-  <si>
-    <t>"22:33"</t>
-  </si>
-  <si>
-    <t>I agree. I think there should definitely be some kind of independent decision-making on how the districts are formed especially because we just see such change over the course of time with all the recruit, the redistricting and the political parties, you know, being able to influence that on both sides. So death. I definitely agree with this.</t>
-  </si>
-  <si>
-    <t>"23:01"</t>
-  </si>
-  <si>
-    <t>I agree as well in California. We do have the independent redistricting commission and it takes the power away from elected officials that are from both parties kind of drawing the lines that they wish to protect incumbents and empowers citizens or individuals to draw the line.</t>
-  </si>
-  <si>
-    <t>"23:29"</t>
-  </si>
-  <si>
-    <t>I agree with Anthony.</t>
-  </si>
-  <si>
-    <t>"24:42"</t>
-  </si>
-  <si>
-    <t>My thoughts on having 16 year olds vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Cynthia too young for that.</t>
-  </si>
-  <si>
-    <t>"25:05"</t>
-  </si>
-  <si>
-    <t>I agree with that. I like the first two on here, but the last two knots on,</t>
-  </si>
-  <si>
-    <t>"25:11"</t>
-  </si>
-  <si>
-    <t>Yeah, I mean making it a requirement to vote with a jury duty of a small fine. I didn't know it would be hard too.</t>
-  </si>
-  <si>
-    <t>It sound think that's feasible. No, so long 16 year old kids to vote in the Local School Board elections. I don't know if that's a good idea because they're still kids. They're not adults.</t>
-  </si>
-  <si>
-    <t>"25:37"</t>
-  </si>
-  <si>
-    <t>I agree with the Envy. I think the first tube holders were decent at least, but the second, the last two I don't agree with get being fined. I think is kind of ridiculous. I mean, the way the economy is right now,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> who is this? A whoo. Whoo, What I'm out. We have to pay.</t>
-  </si>
-  <si>
-    <t>"26:06"</t>
-  </si>
-  <si>
-    <t>Also to add on to the school board with 16 year, olds voting. I think that could get a little dangerous with what agendas the 16 year olds or this, you know, would have and make mockery of the school board. Also, you know, if people don't want to vote and they want to give a fine, I mean it's our right as American, which means we can do it or we can't do it. We don't have</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of to,</t>
-  </si>
-  <si>
-    <t>"26:39"</t>
-  </si>
-  <si>
-    <t>So I agree with not making it as or a Civic obligation. I guess that's what they're saying to do but I don't think it should be a think it also should be your choice. You might really not have a candidate in the race that you prefer or that aligns with you. In regards to the school board. I actually do think that it would be a good idea to lie.</t>
-  </si>
-  <si>
-    <t>Let the patrons that are that are actually benefiting from the school board. So 16 year olds to vote and I'm going to</t>
-  </si>
-  <si>
-    <t>"27:22"</t>
-  </si>
-  <si>
-    <t>Because I think that there are some issues coming across the school board, where its curriculum, whether it's transgender rights. Gender neutral bathrooms that the school board isn't honoring, what students, actually are asking for. So I think it would be important or a good move for students to have a say in school board members.</t>
-  </si>
-  <si>
-    <t>"27:48"</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm gonna agree to disagree, which is why we're here. No offense. Can be, I just, you know, I've already had seven sixteen year olds. Go through my house because I have eight children, and I just think they're too immature and that they would have their own agenda of why they would want this or that. And that's giving them a little too much power especially for this generation. And I can't imagine what the next Generations are going to be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Like, but that's my opinion.</t>
-  </si>
-  <si>
-    <t>"28:26"</t>
-  </si>
-  <si>
-    <t>I agree with Mike. It was Andrea. I don't think 16 year olds should be voting at this point. Not on these kind of issues as far as making it mandatory. I think we've got bigger issues, everybody. It seems wants to vote. I think we need to figure out how do we</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How do we make sure that the voters are legit versus having to find people and things like that?</t>
-  </si>
-  <si>
-    <t>"28:57"</t>
-  </si>
-  <si>
-    <t>Speaking as a former sixteen-year-old, I would love to have had the option to go get Jack space to to if I wanted to vote, let's be honest, I probably was too immature. I probably would have wanted to go vote either but the opportunity if available to me I could have made the choice myself in Most states, you can obtain a driver's license. At 16, you can consent to sexual activity. You can gain full time employment enroll in schools. I mean, you know, and so I I think that whichever side of the spectrum, you know, used to your on, right?</t>
-  </si>
-  <si>
-    <t>Right. The reality is, if everybody has access to, it is fine by me, 16 year, olds included. I don't think it should be a jury duty or a fine. I think that, that is an appropriate in my opinion.</t>
-  </si>
-  <si>
-    <t>"29:41"</t>
-  </si>
-  <si>
-    <t>And again, it would just be on the school board members. It's not on Senators, it's not on, you know, local issues or Congressman. So School District board members have direct impact on those students lives. So should they not have a say in that impact?</t>
-  </si>
-  <si>
-    <t>"30:10"</t>
-  </si>
-  <si>
-    <t>I can be that it that is a good point, you know, should they not have the saying on the impact and and I get that I just worried that it would be giving them a little too much power and I just think that the younger generation has a little too much powered and maybe it's because I didn't have that when I was younger.</t>
-  </si>
-  <si>
-    <t>"30:33"</t>
-  </si>
-  <si>
-    <t>I think I do agree that 16 year olds should potentially have the option to vote in local school board type decisions, but I think it should be specific to those issues that are going to impact the sixteen-year-olds. And if there was a way to kind of identify those particular,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Areas that they could vote on. So, I mean, things like salaries for teachers and things, I think that don't directly impact them. I think maybe they don't have the maturity, but things like policies on, you know, literally on the school campus things are going to impact their day-to-day. I agree to give them a voice.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -433,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -542,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1624,734 +1302,871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:06"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:27"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hi, I'm Lisa from Hawaii.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:37"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>I'm Danny from Idaho.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:48"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:48"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca from Florida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"13:02"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>I think there should be limits on contributions full disclosure on who is contributing. I just think there should be something that the super Pacs are limited just because you have a lot of money doesn't mean you could spend all that money to make an unfair Advantage. So I think there should be limits. I'm not real sure. What that should be but limits on individuals limits on the super Pacs full disclosure on Whose they are. I also</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"13:02"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Favor, full disclosure and closing the loopholes for foreign-controlled entities from making contributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48750</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:47"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Oz, 100%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48750</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:51"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"13:53"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:53"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:08"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Andrea, we couldn't hear you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"14:08"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And what I was going to say was they were talking about the, you know,</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"14:29"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>You guess. So they were talking about inflation and the cost of running a campaign is more now so I think that they should adjust the limits according to inflation, you know just like we might get a cost of living increase, they can have a increase in what donations could be but that it would it would Trend with inflation and not just be some random.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"14:29"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> More amount.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"15:04"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I do think that there should be some excuse me said be some recognition about the cost of living increases and that should parallel the donation caps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"15:18"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"15:25"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I am, I agree with with raising limits for folks that can't afford it. I can't, you know, afford all that. But that would, as long as we do that, in a way that also is coupled with the closing loopholes for foreign-controlled entities, making contributions as well as like, as well as the Constitutional Amendment regarding the IE pieces. Those are getting out of control and they are just a lot of them are either race-baiting or very despicable and misleading.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"15:25"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You and outright lies. So, absolutely. And I think that honestly, I hope we get to the public financing piece. If we talk about that here because I feel like people can't run for office because they can't afford it at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"16:06"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Can you guys hear me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"16:14"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Yes, we could.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"16:16"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Okay, great. I'm sorry. What I was going to say before was that, you know, people who have like unlimited income to finance or donate, it could almost be like their, the opponent is being bought. And how fair is that for somebody who doesn't have the money, and there's a good opponent out there who needs it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"19:01"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>As I said earlier, totally agree with public financing. I think that it would allow opportunities for those that may not even dream about running for office because of such, because of the huge debt that they could get into win or loss having to pay down that debt is, is something that is terrifying. You some some people that live paycheck to paycheck or could barely live in a higher medium cost of living area,</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>I think there should be for full disclosure on everything whoever contributes even if it's five dollars or make a minimum 100, whatever it is it should be for the full disclosure. As far as for the packs, I think the pack should be limited and how much they can contribute and each individual contributor to the pack should be limited. So that one person who has 5 million dollars, just doesn't donate the whole thing. And in essence is buying the</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"19:43"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And who they're trying to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:21"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I do think giving individuals quote-unquote democracy, vouchers would get people more invested in candidates and more invested in the voting process. And I'm a little unsure if that's the best use of maybe taxpayer money. I'm like I'm not sure I like where this money is coming from. There's already a lot of things that</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:21"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> we need money for so not sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"22:10"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I do think this would be a good idea to have independent nonpartisan e partisan, redistricting that it's left up to the elected officials in the state just feels like they're always going to choose boundaries in their favor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"22:33"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I think there should definitely be some kind of independent decision-making on how the districts are formed especially because we just see such change over the course of time with all the recruit, the redistricting and the political parties, you know, being able to influence that on both sides. So death. I definitely agree with this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:01"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>I agree as well in California. We do have the independent redistricting commission and it takes the power away from elected officials that are from both parties kind of drawing the lines that they wish to protect incumbents and empowers citizens or individuals to draw the line.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:29"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Anthony.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:42"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>My thoughts on having 16 year olds vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"24:42"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Cynthia too young for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48718</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"25:05"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that. I like the first two on here, but the last two knots on,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48722</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"25:11"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48722</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"25:11"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I mean making it a requirement to vote with a jury duty of a small fine. I didn't know it would be hard too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48722</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"25:11"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>It sound think that's feasible. No, so long 16 year old kids to vote in the Local School Board elections. I don't know if that's a good idea because they're still kids. They're not adults.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48750</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I agree with the Envy. I think the first tube holders were decent at least, but the second, the last two I don't agree with get being fined. I think is kind of ridiculous. I mean, the way the economy is right now,</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48750</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n"/>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48750</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> who is this? A whoo. Whoo, What I'm out. We have to pay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:06"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Also to add on to the school board with 16 year, olds voting. I think that could get a little dangerous with what agendas the 16 year olds or this, you know, would have and make mockery of the school board. Also, you know, if people don't want to vote and they want to give a fine, I mean it's our right as American, which means we can do it or we can't do it. We don't have</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"26:06"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> of to,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"26:39"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>So I agree with not making it as or a Civic obligation. I guess that's what they're saying to do but I don't think it should be a think it also should be your choice. You might really not have a candidate in the race that you prefer or that aligns with you. In regards to the school board. I actually do think that it would be a good idea to lie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"26:39"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Let the patrons that are that are actually benefiting from the school board. So 16 year olds to vote and I'm going to</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"27:22"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Because I think that there are some issues coming across the school board, where its curriculum, whether it's transgender rights. Gender neutral bathrooms that the school board isn't honoring, what students, actually are asking for. So I think it would be important or a good move for students to have a say in school board members.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"27:48"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"27:48"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I'm gonna agree to disagree, which is why we're here. No offense. Can be, I just, you know, I've already had seven sixteen year olds. Go through my house because I have eight children, and I just think they're too immature and that they would have their own agenda of why they would want this or that. And that's giving them a little too much power especially for this generation. And I can't imagine what the next Generations are going to be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"27:48"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Like, but that's my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"28:26"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Mike. It was Andrea. I don't think 16 year olds should be voting at this point. Not on these kind of issues as far as making it mandatory. I think we've got bigger issues, everybody. It seems wants to vote. I think we need to figure out how do we</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48720</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"28:26"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> How do we make sure that the voters are legit versus having to find people and things like that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"28:57"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Speaking as a former sixteen-year-old, I would love to have had the option to go get Jack space to to if I wanted to vote, let's be honest, I probably was too immature. I probably would have wanted to go vote either but the opportunity if available to me I could have made the choice myself in Most states, you can obtain a driver's license. At 16, you can consent to sexual activity. You can gain full time employment enroll in schools. I mean, you know, and so I I think that whichever side of the spectrum, you know, used to your on, right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>10044</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"28:57"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Right. The reality is, if everybody has access to, it is fine by me, 16 year, olds included. I don't think it should be a jury duty or a fine. I think that, that is an appropriate in my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48751</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"29:41"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>And again, it would just be on the school board members. It's not on Senators, it's not on, you know, local issues or Congressman. So School District board members have direct impact on those students lives. So should they not have a say in that impact?</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48723</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"30:10"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>I can be that it that is a good point, you know, should they not have the saying on the impact and and I get that I just worried that it would be giving them a little too much power and I just think that the younger generation has a little too much powered and maybe it's because I didn't have that when I was younger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"30:33"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>I think I do agree that 16 year olds should potentially have the option to vote in local school board type decisions, but I think it should be specific to those issues that are going to impact the sixteen-year-olds. And if there was a way to kind of identify those particular,</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>48724</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>84</v>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"30:33"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Areas that they could vote on. So, I mean, things like salaries for teachers and things, I think that don't directly impact them. I think maybe they don't have the maturity, but things like policies on, you know, literally on the school campus things are going to impact their day-to-day. I agree to give them a voice.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1D45BC-6C76-7346-AF4B-E158E5CB6D56}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>